--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_92.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_92.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3552631578947368</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D/2', 'A', 'G/2', 'D/5', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[['F', 'C', 'Bb', 'F', 'C', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[('0:02:10.596000', '0:02:19.605000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.372267', '0:01:56.222244')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:00:08.980000', '0:00:20.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[('0:01:37.620000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:10.940000', '0:00:16.320000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.52, 19.88)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.44, 24.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.7, 12.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
